--- a/uploads/AudioInfo.xlsx
+++ b/uploads/AudioInfo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>fileName</t>
   </si>
@@ -40,13 +40,13 @@
     <t>region</t>
   </si>
   <si>
-    <t>file1402-1541520088226.wav</t>
+    <t>file1424-1542116667062.wav</t>
   </si>
   <si>
     <t>"5bdb8eaecdf71a365c6bc1cd"</t>
   </si>
   <si>
-    <t>Gà trống dậy sớm; Mèo lười ngủ trưa; Còn em đi học; Đi cho đúng giờ.</t>
+    <t>Kiến Đen uống rượu la đà; Bao nhiêu kiến Gió bay ra chia phần…</t>
   </si>
   <si>
     <t>male</t>
@@ -58,46 +58,16 @@
     <t>Thừa Thiên Huế</t>
   </si>
   <si>
-    <t>file2655-1541520088231.wav</t>
-  </si>
-  <si>
-    <t>Có nàng gà mái hoa mơ; Cục ta cục tác khi vừa đẻ xong</t>
-  </si>
-  <si>
-    <t>file3119-1541520088240.wav</t>
-  </si>
-  <si>
-    <t>Dù đi xa thật là xa; Chẳng đâu vui được như nhà của em.</t>
-  </si>
-  <si>
-    <t>file167-1541520141079.wav</t>
-  </si>
-  <si>
-    <t>Bác giun đào đất suốt ngày; Trưa nay chết dưới bóng cây sau nhà</t>
-  </si>
-  <si>
-    <t>file2232-1541520141081.wav</t>
-  </si>
-  <si>
-    <t>Kiến Lửa đốt đuốc đỏ làng; Kiến Kim chống gậy, kiến Càng nặng vai</t>
-  </si>
-  <si>
-    <t>file3185-1541520141084.wav</t>
-  </si>
-  <si>
-    <t>Đám ma đưa đến là dài; Qua những vườn chuối, vườn khoai, vườn cà</t>
-  </si>
-  <si>
-    <t>file1552-1541525696443.wav</t>
-  </si>
-  <si>
-    <t>Họ hàng nhà kiến kéo ra; Kiến con đi trước, kiến già theo sau</t>
-  </si>
-  <si>
-    <t>file2343-1541525696458.wav</t>
-  </si>
-  <si>
-    <t>file3184-1541525696469.wav</t>
+    <t>file2608-1542116667082.wav</t>
+  </si>
+  <si>
+    <t>Cầm hương kiến Đất bạc đầu; Khóc than kiến Cánh khoác màu áo tang</t>
+  </si>
+  <si>
+    <t>file3615-1542116667100.wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sân khấu ở trên không; Giữa vòm trời lá biếc; Trên cành những nhạc công; Cùng thổi kèn náo nhiệt </t>
   </si>
 </sst>
 </file>
@@ -474,11 +444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="6" width="50" customWidth="1"/>
+    <col min="2" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="50" customWidth="1"/>
     <col min="7" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
   </cols>
@@ -517,10 +489,10 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>6741</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -546,10 +518,10 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>6570</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -575,10 +547,10 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>8277</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -596,180 +568,6 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>4096</v>
-      </c>
-      <c r="C8">
-        <v>48000</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9">
-        <v>4096</v>
-      </c>
-      <c r="C9">
-        <v>48000</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10">
-        <v>4437</v>
-      </c>
-      <c r="C10">
-        <v>48000</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
         <v>14</v>
       </c>
     </row>

--- a/uploads/AudioInfo.xlsx
+++ b/uploads/AudioInfo.xlsx
@@ -52,7 +52,7 @@
     <t>male</t>
   </si>
   <si>
-    <t>19-29</t>
+    <t>20-29</t>
   </si>
   <si>
     <t>Thừa Thiên Huế</t>

--- a/uploads/AudioInfo.xlsx
+++ b/uploads/AudioInfo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="128">
   <si>
     <t>fileName</t>
   </si>
@@ -40,64 +40,361 @@
     <t>region</t>
   </si>
   <si>
-    <t>file1402-1541520088226.wav</t>
+    <t>file1424-1542116667062.wav</t>
   </si>
   <si>
     <t>"5bdb8eaecdf71a365c6bc1cd"</t>
   </si>
   <si>
+    <t>Kiến Đen uống rượu la đà; Bao nhiêu kiến Gió bay ra chia phần…</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>19-29</t>
+  </si>
+  <si>
+    <t>Thừa Thiên Huế</t>
+  </si>
+  <si>
+    <t>file2608-1542116667082.wav</t>
+  </si>
+  <si>
+    <t>Cầm hương kiến Đất bạc đầu; Khóc than kiến Cánh khoác màu áo tang</t>
+  </si>
+  <si>
+    <t>file3615-1542116667100.wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sân khấu ở trên không; Giữa vòm trời lá biếc; Trên cành những nhạc công; Cùng thổi kèn náo nhiệt </t>
+  </si>
+  <si>
+    <t>file1288-1542556693278.wav</t>
+  </si>
+  <si>
+    <t>Giới thiệu các giống cá mới, đặc sắc, có thế mạnh xuất khẩu, mang lại hiệu quả kinh tế.</t>
+  </si>
+  <si>
+    <t>file226-1542556693295.wav</t>
+  </si>
+  <si>
+    <t>Cá hồng két thường có nhiều chủng loại khác nhau như cá hồng két vàng, cá hồng két tím</t>
+  </si>
+  <si>
+    <t>file3951-1542556693312.wav</t>
+  </si>
+  <si>
+    <t>Các con trai của tôi cũng rất yêu các sinh vật cảnh nên rất háo hức khi đến đây.</t>
+  </si>
+  <si>
+    <t>file1628-1543202006012.wav</t>
+  </si>
+  <si>
+    <t>"5be29d465a606e26003793c2"</t>
+  </si>
+  <si>
+    <t>Các loại cá cảnh sản xuất chủ yếu là cá dĩa, cá chép Nhật, cá bảy màu, hòa lan</t>
+  </si>
+  <si>
+    <t>10-14</t>
+  </si>
+  <si>
+    <t>Bắc(r,s,tr đọc nặng)</t>
+  </si>
+  <si>
+    <t>file2354-1543202006715.wav</t>
+  </si>
+  <si>
+    <t>đa dạng, phong phú về nội dung và hình thức trình bày nhằm tạo hứng thú học tập cho học sinh</t>
+  </si>
+  <si>
+    <t>file3887-1543202006727.wav</t>
+  </si>
+  <si>
+    <t>Cụ thể, các tác giả đã có những khuyến cáo, nhắc nhở học sinh không được viết vào sách giáo khoa</t>
+  </si>
+  <si>
+    <t>file1742-1543214356788.wav</t>
+  </si>
+  <si>
+    <t>Khi làm phim Đập cánh giữa không trung, ngoài nguồn vốn do chính bản thân bỏ ra, tôi không trông đợi nguồn quỹ hỗ trợ trong nước</t>
+  </si>
+  <si>
+    <t>file2671-1543214357282.wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nữ nghệ sĩ trẻ Trương Ngộ Tình đã bị một thợ làm tóc sát hại man rợ. </t>
+  </si>
+  <si>
+    <t>file3144-1543214357310.wav</t>
+  </si>
+  <si>
+    <t>Các quỹ đầu tư cho phim Việt ra mắt mở ra cơ hội làm phim cho các nhà làm phim trẻ, mới</t>
+  </si>
+  <si>
+    <t>file131-1543234902523.wav</t>
+  </si>
+  <si>
     <t>Gà trống dậy sớm; Mèo lười ngủ trưa; Còn em đi học; Đi cho đúng giờ.</t>
   </si>
   <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>19-29</t>
-  </si>
-  <si>
-    <t>Thừa Thiên Huế</t>
-  </si>
-  <si>
-    <t>file2655-1541520088231.wav</t>
+    <t>file2955-1543234902983.wav</t>
   </si>
   <si>
     <t>Có nàng gà mái hoa mơ; Cục ta cục tác khi vừa đẻ xong</t>
   </si>
   <si>
-    <t>file3119-1541520088240.wav</t>
+    <t>file31-1543234902989.wav</t>
   </si>
   <si>
     <t>Dù đi xa thật là xa; Chẳng đâu vui được như nhà của em.</t>
   </si>
   <si>
-    <t>file167-1541520141079.wav</t>
+    <t>file1315-1543235116482.wav</t>
+  </si>
+  <si>
+    <t>Nếu là tôi thì tôi đã bỏ đi lâu rồi, tội gì ở lại cho khổ thân cơ chứ.</t>
+  </si>
+  <si>
+    <t>file2836-1543235116570.wav</t>
+  </si>
+  <si>
+    <t>Tính tôi ưa lao động từ bé cho nên nhàn rỗi tôi không chịu được, vả lại ông chủ coi tôi như người bạn</t>
+  </si>
+  <si>
+    <t>file3282-1543235116582.wav</t>
+  </si>
+  <si>
+    <t>Có việc vui buồn gì ông chủ cũng tâm sự cùng tôi vì thế tôi không nỡ lòng nào bỏ ông ấy.</t>
+  </si>
+  <si>
+    <t>file1298-1543308512626.wav</t>
+  </si>
+  <si>
+    <t>"5bfd04e233f0711e6cc83406"</t>
+  </si>
+  <si>
+    <t>Nguồn thu từ phát hành, phổ biến những phim được sản xuất có sử dụng ngân sách nhà nước sau khi đã trừ đi mọi chi phí</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>15-19</t>
+  </si>
+  <si>
+    <t>Nghệ An</t>
+  </si>
+  <si>
+    <t>file2654-1543308512968.wav</t>
+  </si>
+  <si>
+    <t>file3993-1543308512975.wav</t>
+  </si>
+  <si>
+    <t>file1536-1543308590353.wav</t>
+  </si>
+  <si>
+    <t>Anh Trương nảy sinh nghi ngờ vì tin nhắn không giống phong cách viết thường ngày của người yêu.</t>
+  </si>
+  <si>
+    <t>file2944-1543308590363.wav</t>
+  </si>
+  <si>
+    <t>Khe thông gió được thiết kế khoa học, nên luôn tạo cảm giác thoáng mát khi đội</t>
+  </si>
+  <si>
+    <t>file3794-1543308590367.wav</t>
+  </si>
+  <si>
+    <t>Kính làm từ nhựa PC và xử lý nano có khả năng hạn chế vỡ, trầy xước, chống tia  UV, nâng lên hạ xuống dễ dàng</t>
+  </si>
+  <si>
+    <t>file1935-1543308649677.wav</t>
+  </si>
+  <si>
+    <t>"5bfd056c33f0711e6cc8340d"</t>
+  </si>
+  <si>
+    <t>Thanh Hoá</t>
+  </si>
+  <si>
+    <t>file2408-1543308649694.wav</t>
+  </si>
+  <si>
+    <t>file3980-1543308649698.wav</t>
+  </si>
+  <si>
+    <t>Thế rồi vì người chủ giàu có do ham chơi chẳng chịu lao động cho nên của cải cũng hết</t>
+  </si>
+  <si>
+    <t>file1110-1543308853247.wav</t>
+  </si>
+  <si>
+    <t>"5bfd063833f0711e6cc83411"</t>
+  </si>
+  <si>
+    <t>Vàng như mặt trăng; Treo trên vòm lá; Da nhẵn mịn màng; Thị ơi ! thơm quá</t>
+  </si>
+  <si>
+    <t>Quảng Trị</t>
+  </si>
+  <si>
+    <t>file2975-1543308853253.wav</t>
+  </si>
+  <si>
+    <t>Em cầm cái bát; Vô ý đánh rơi; Chắc bát đau lắm; Xin lỗi bát ơi</t>
+  </si>
+  <si>
+    <t>file3519-1543308853258.wav</t>
+  </si>
+  <si>
+    <t>Mẹ đi làm; Từ sáng sớm; Dậy thổi cơm; Kho thịt cá; Em kề má; Được mẹ thơm; Ôi mẹ ơi!Yêu mẹ lắm.</t>
+  </si>
+  <si>
+    <t>file140-1543358999512.wav</t>
+  </si>
+  <si>
+    <t>file235-1543358999877.wav</t>
+  </si>
+  <si>
+    <t>file3580-1543358999891.wav</t>
+  </si>
+  <si>
+    <t>file1866-1543360140856.wav</t>
+  </si>
+  <si>
+    <t>Quần áo không chỉ thơm mát sau khi giặt xong, mà còn giữ mùi hương suốt cả ngày</t>
+  </si>
+  <si>
+    <t>file2198-1543360140900.wav</t>
+  </si>
+  <si>
+    <t>Hãy bắt đầu “hành trình” tập thể hình tại nhà với 4 bài tập sau đây.</t>
+  </si>
+  <si>
+    <t>file3718-1543360141210.wav</t>
+  </si>
+  <si>
+    <t>file1814-1543360365668.wav</t>
+  </si>
+  <si>
+    <t>Chẳng đâu bằng chính nhà em; Có đàn chim sẻ bên thềm líu lo</t>
+  </si>
+  <si>
+    <t>file2262-1543360365690.wav</t>
+  </si>
+  <si>
+    <t>Gà con nhỏ xíu; Lông vàng dễ thương; Gặp ông trên đường; Cháu chào ông ạ; Gà con ngoan quá</t>
+  </si>
+  <si>
+    <t>file3497-1543360365764.wav</t>
+  </si>
+  <si>
+    <t>Chú chim bạc má; Đậu trên cành cao; Gặp ông chim chào; Cháu chào ông ạ; Bạn chim ngoan quá</t>
+  </si>
+  <si>
+    <t>file1768-1543360448017.wav</t>
+  </si>
+  <si>
+    <t>Họ hàng nhà kiến kéo ra; Kiến con đi trước, kiến già theo sau</t>
+  </si>
+  <si>
+    <t>file250-1543360448020.wav</t>
   </si>
   <si>
     <t>Bác giun đào đất suốt ngày; Trưa nay chết dưới bóng cây sau nhà</t>
   </si>
   <si>
-    <t>file2232-1541520141081.wav</t>
+    <t>file3272-1543360448022.wav</t>
   </si>
   <si>
     <t>Kiến Lửa đốt đuốc đỏ làng; Kiến Kim chống gậy, kiến Càng nặng vai</t>
   </si>
   <si>
-    <t>file3185-1541520141084.wav</t>
-  </si>
-  <si>
-    <t>Đám ma đưa đến là dài; Qua những vườn chuối, vườn khoai, vườn cà</t>
-  </si>
-  <si>
-    <t>file1552-1541525696443.wav</t>
-  </si>
-  <si>
-    <t>Họ hàng nhà kiến kéo ra; Kiến con đi trước, kiến già theo sau</t>
-  </si>
-  <si>
-    <t>file2343-1541525696458.wav</t>
-  </si>
-  <si>
-    <t>file3184-1541525696469.wav</t>
+    <t>file1634-1543360721116.wav</t>
+  </si>
+  <si>
+    <t>Nhưng hôm nào trăng khuyết; Trông giống con thuyền trôi; Em đi trăng theo bước; Như muốn cùng đi chơi</t>
+  </si>
+  <si>
+    <t>file2489-1543360721118.wav</t>
+  </si>
+  <si>
+    <t>Cây dây leo; Bé tí teo; Ở trong nhà; Lại bò ra; Ngoài cửa sổ</t>
+  </si>
+  <si>
+    <t>file3109-1543360721122.wav</t>
+  </si>
+  <si>
+    <t>Con bướm trắng; Lượn cành hồng; Gặp con ong; Đang bay vội; Bướm liền gọi</t>
+  </si>
+  <si>
+    <t>file1379-1543763498984.wav</t>
+  </si>
+  <si>
+    <t>Một sinh viên đang học tại chức được mời làm phản biện luận văn tốt nghiệp của sinh viên đào tạo chính quy</t>
+  </si>
+  <si>
+    <t>file2249-1543763499017.wav</t>
+  </si>
+  <si>
+    <t>Bộ phim điện ảnh đầu tay Người vợ ba của nữ đạo diễn Nguyễn Phương Anh, vừa giành giải thưởng Phim châu Á xuất sắc nhất</t>
+  </si>
+  <si>
+    <t>file3125-1543763499027.wav</t>
+  </si>
+  <si>
+    <t>Sau gần chục năm bàn thảo, dự kiến vào đầu năm 2019, Quỹ hỗ trợ phát triển điện ảnh sẽ chính thức được thành lập</t>
+  </si>
+  <si>
+    <t>file1469-1543767840362.wav</t>
+  </si>
+  <si>
+    <t>Lòng trắng lòng đỏ; Thành mỏ thành chân; Cái mỏ tí hon; Cái chân bé xíu</t>
+  </si>
+  <si>
+    <t>file2631-1543767840369.wav</t>
+  </si>
+  <si>
+    <t>Sân nhà em sáng quá; Nhờ ánh trăng sáng ngời; Trăng tròn như cái đĩa; Lơ lửng mà không rơi</t>
+  </si>
+  <si>
+    <t>file3371-1543767840376.wav</t>
+  </si>
+  <si>
+    <t>Lông vàng mát dịu; Mắt đen sáng ngời; Ơi chú gà ơi; Ta yêu chú lắm</t>
+  </si>
+  <si>
+    <t>file1155-1543767912703.wav</t>
+  </si>
+  <si>
+    <t>"5c04076a5584fa2144451039"</t>
+  </si>
+  <si>
+    <t>Chỉ có về Bảo Lộc mới có được không khí Trung Thu vui như thế này</t>
+  </si>
+  <si>
+    <t>file2981-1543767913203.wav</t>
+  </si>
+  <si>
+    <t>Người đàn ông ấy chăm chú điền thông tin cho cả nhà trong khi 3 mẹ con nó nhảy nhót tung tăng</t>
+  </si>
+  <si>
+    <t>file3989-1543767913274.wav</t>
+  </si>
+  <si>
+    <t>Ông Hoan cho biết việc thực hiện sẽ kiểm tra làm rõ các tình tiết, có xem xét quá trình và hoàn cảnh lịch sử từng vụ việc</t>
+  </si>
+  <si>
+    <t>file1731-1543767988042.wav</t>
+  </si>
+  <si>
+    <t>file2247-1543767988046.wav</t>
+  </si>
+  <si>
+    <t>file3433-1543767988073.wav</t>
   </si>
 </sst>
 </file>
@@ -474,11 +771,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I58"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="6" width="50" customWidth="1"/>
+    <col min="2" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="50" customWidth="1"/>
     <col min="7" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
   </cols>
@@ -517,10 +816,10 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>6741</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -546,10 +845,10 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>6570</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -575,10 +874,10 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>8277</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -604,10 +903,10 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5205</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -633,10 +932,10 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>5802</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -662,10 +961,10 @@
         <v>23</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>5205</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -691,7 +990,7 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>4096</v>
+        <v>1194</v>
       </c>
       <c r="C8">
         <v>48000</v>
@@ -700,27 +999,27 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B9">
-        <v>4096</v>
+        <v>1365</v>
       </c>
       <c r="C9">
         <v>48000</v>
@@ -729,47 +1028,1439 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>1194</v>
+      </c>
+      <c r="C10">
+        <v>48000</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
         <v>28</v>
       </c>
-      <c r="B10">
-        <v>4437</v>
-      </c>
-      <c r="C10">
-        <v>48000</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>3413</v>
+      </c>
+      <c r="C11">
+        <v>48000</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>938</v>
+      </c>
+      <c r="C12">
+        <v>48000</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>853</v>
+      </c>
+      <c r="C13">
+        <v>48000</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>23466</v>
+      </c>
+      <c r="C14">
+        <v>48000</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>938</v>
+      </c>
+      <c r="C15">
+        <v>48000</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>1194</v>
+      </c>
+      <c r="C16">
+        <v>48000</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <v>7765</v>
+      </c>
+      <c r="C17">
+        <v>48000</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <v>768</v>
+      </c>
+      <c r="C18">
+        <v>48000</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>768</v>
+      </c>
+      <c r="C19">
+        <v>48000</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20">
+        <v>938</v>
+      </c>
+      <c r="C20">
+        <v>48000</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21">
+        <v>597</v>
+      </c>
+      <c r="C21">
+        <v>48000</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22">
+        <v>512</v>
+      </c>
+      <c r="C22">
+        <v>48000</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>768</v>
+      </c>
+      <c r="C23">
+        <v>48000</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24">
+        <v>768</v>
+      </c>
+      <c r="C24">
+        <v>48000</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25">
+        <v>768</v>
+      </c>
+      <c r="C25">
+        <v>48000</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26">
+        <v>1280</v>
+      </c>
+      <c r="C26">
+        <v>48000</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27">
+        <v>1024</v>
+      </c>
+      <c r="C27">
+        <v>48000</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28">
+        <v>768</v>
+      </c>
+      <c r="C28">
+        <v>48000</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29">
+        <v>512</v>
+      </c>
+      <c r="C29">
+        <v>48000</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30">
+        <v>256</v>
+      </c>
+      <c r="C30">
+        <v>48000</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31">
+        <v>597</v>
+      </c>
+      <c r="C31">
+        <v>48000</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32">
+        <v>6229</v>
+      </c>
+      <c r="C32">
+        <v>48000</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33">
+        <v>1109</v>
+      </c>
+      <c r="C33">
+        <v>48000</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34">
+        <v>938</v>
+      </c>
+      <c r="C34">
+        <v>48000</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35">
+        <v>4864</v>
+      </c>
+      <c r="C35">
+        <v>48000</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36">
+        <v>3328</v>
+      </c>
+      <c r="C36">
+        <v>48000</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37">
+        <v>5546</v>
+      </c>
+      <c r="C37">
+        <v>48000</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38">
+        <v>1792</v>
+      </c>
+      <c r="C38">
+        <v>48000</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39">
+        <v>4010</v>
+      </c>
+      <c r="C39">
+        <v>48000</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40">
+        <v>1024</v>
+      </c>
+      <c r="C40">
+        <v>48000</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41">
+        <v>512</v>
+      </c>
+      <c r="C41">
+        <v>48000</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G41" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42">
+        <v>426</v>
+      </c>
+      <c r="C42">
+        <v>48000</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43">
+        <v>853</v>
+      </c>
+      <c r="C43">
+        <v>48000</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44">
+        <v>512</v>
+      </c>
+      <c r="C44">
+        <v>48000</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" t="s">
+        <v>101</v>
+      </c>
+      <c r="G44" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45">
+        <v>597</v>
+      </c>
+      <c r="C45">
+        <v>48000</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" t="s">
+        <v>103</v>
+      </c>
+      <c r="G45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46">
+        <v>512</v>
+      </c>
+      <c r="C46">
+        <v>48000</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" t="s">
+        <v>105</v>
+      </c>
+      <c r="G46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47">
+        <v>2901</v>
+      </c>
+      <c r="C47">
+        <v>48000</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="F47" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48">
+        <v>2730</v>
+      </c>
+      <c r="C48">
+        <v>48000</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49">
+        <v>2901</v>
+      </c>
+      <c r="C49">
+        <v>48000</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>111</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50">
+        <v>1.71</v>
+      </c>
+      <c r="C50">
+        <v>48000</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>113</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51">
+        <v>1.45</v>
+      </c>
+      <c r="C51">
+        <v>48000</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>115</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52">
+        <v>1.62</v>
+      </c>
+      <c r="C52">
+        <v>48000</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>117</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53">
+        <v>7338</v>
+      </c>
+      <c r="C53">
+        <v>48000</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" t="s">
+        <v>120</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54">
+        <v>1792</v>
+      </c>
+      <c r="C54">
+        <v>48000</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" t="s">
+        <v>122</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55">
+        <v>13312</v>
+      </c>
+      <c r="C55">
+        <v>48000</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>119</v>
+      </c>
+      <c r="F55" t="s">
+        <v>124</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56">
+        <v>1.62</v>
+      </c>
+      <c r="C56">
+        <v>48000</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>54</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57">
+        <v>1.45</v>
+      </c>
+      <c r="C57">
+        <v>48000</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58">
+        <v>1.54</v>
+      </c>
+      <c r="C58">
+        <v>48000</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" t="s">
         <v>14</v>
       </c>
     </row>

--- a/uploads/AudioInfo.xlsx
+++ b/uploads/AudioInfo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="249">
   <si>
     <t>fileName</t>
   </si>
@@ -68,6 +68,696 @@
   </si>
   <si>
     <t xml:space="preserve">Sân khấu ở trên không; Giữa vòm trời lá biếc; Trên cành những nhạc công; Cùng thổi kèn náo nhiệt </t>
+  </si>
+  <si>
+    <t>file1288-1542556693278.wav</t>
+  </si>
+  <si>
+    <t>Giới thiệu các giống cá mới, đặc sắc, có thế mạnh xuất khẩu, mang lại hiệu quả kinh tế.</t>
+  </si>
+  <si>
+    <t>file226-1542556693295.wav</t>
+  </si>
+  <si>
+    <t>Cá hồng két thường có nhiều chủng loại khác nhau như cá hồng két vàng, cá hồng két tím</t>
+  </si>
+  <si>
+    <t>file3951-1542556693312.wav</t>
+  </si>
+  <si>
+    <t>Các con trai của tôi cũng rất yêu các sinh vật cảnh nên rất háo hức khi đến đây.</t>
+  </si>
+  <si>
+    <t>file1628-1543202006012.wav</t>
+  </si>
+  <si>
+    <t>"5be29d465a606e26003793c2"</t>
+  </si>
+  <si>
+    <t>Các loại cá cảnh sản xuất chủ yếu là cá dĩa, cá chép Nhật, cá bảy màu, hòa lan</t>
+  </si>
+  <si>
+    <t>10-14</t>
+  </si>
+  <si>
+    <t>Bắc(r,s,tr đọc nặng)</t>
+  </si>
+  <si>
+    <t>file2354-1543202006715.wav</t>
+  </si>
+  <si>
+    <t>đa dạng, phong phú về nội dung và hình thức trình bày nhằm tạo hứng thú học tập cho học sinh</t>
+  </si>
+  <si>
+    <t>file3887-1543202006727.wav</t>
+  </si>
+  <si>
+    <t>Cụ thể, các tác giả đã có những khuyến cáo, nhắc nhở học sinh không được viết vào sách giáo khoa</t>
+  </si>
+  <si>
+    <t>file1742-1543214356788.wav</t>
+  </si>
+  <si>
+    <t>Khi làm phim Đập cánh giữa không trung, ngoài nguồn vốn do chính bản thân bỏ ra, tôi không trông đợi nguồn quỹ hỗ trợ trong nước</t>
+  </si>
+  <si>
+    <t>file2671-1543214357282.wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nữ nghệ sĩ trẻ Trương Ngộ Tình đã bị một thợ làm tóc sát hại man rợ. </t>
+  </si>
+  <si>
+    <t>file3144-1543214357310.wav</t>
+  </si>
+  <si>
+    <t>Các quỹ đầu tư cho phim Việt ra mắt mở ra cơ hội làm phim cho các nhà làm phim trẻ, mới</t>
+  </si>
+  <si>
+    <t>file131-1543234902523.wav</t>
+  </si>
+  <si>
+    <t>Gà trống dậy sớm; Mèo lười ngủ trưa; Còn em đi học; Đi cho đúng giờ.</t>
+  </si>
+  <si>
+    <t>file2955-1543234902983.wav</t>
+  </si>
+  <si>
+    <t>Có nàng gà mái hoa mơ; Cục ta cục tác khi vừa đẻ xong</t>
+  </si>
+  <si>
+    <t>file31-1543234902989.wav</t>
+  </si>
+  <si>
+    <t>Dù đi xa thật là xa; Chẳng đâu vui được như nhà của em.</t>
+  </si>
+  <si>
+    <t>file1315-1543235116482.wav</t>
+  </si>
+  <si>
+    <t>Nếu là tôi thì tôi đã bỏ đi lâu rồi, tội gì ở lại cho khổ thân cơ chứ.</t>
+  </si>
+  <si>
+    <t>file2836-1543235116570.wav</t>
+  </si>
+  <si>
+    <t>Tính tôi ưa lao động từ bé cho nên nhàn rỗi tôi không chịu được, vả lại ông chủ coi tôi như người bạn</t>
+  </si>
+  <si>
+    <t>file3282-1543235116582.wav</t>
+  </si>
+  <si>
+    <t>Có việc vui buồn gì ông chủ cũng tâm sự cùng tôi vì thế tôi không nỡ lòng nào bỏ ông ấy.</t>
+  </si>
+  <si>
+    <t>file1298-1543308512626.wav</t>
+  </si>
+  <si>
+    <t>"5bfd04e233f0711e6cc83406"</t>
+  </si>
+  <si>
+    <t>Nguồn thu từ phát hành, phổ biến những phim được sản xuất có sử dụng ngân sách nhà nước sau khi đã trừ đi mọi chi phí</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>15-19</t>
+  </si>
+  <si>
+    <t>Nghệ An</t>
+  </si>
+  <si>
+    <t>file2654-1543308512968.wav</t>
+  </si>
+  <si>
+    <t>file3993-1543308512975.wav</t>
+  </si>
+  <si>
+    <t>file1536-1543308590353.wav</t>
+  </si>
+  <si>
+    <t>Anh Trương nảy sinh nghi ngờ vì tin nhắn không giống phong cách viết thường ngày của người yêu.</t>
+  </si>
+  <si>
+    <t>file2944-1543308590363.wav</t>
+  </si>
+  <si>
+    <t>Khe thông gió được thiết kế khoa học, nên luôn tạo cảm giác thoáng mát khi đội</t>
+  </si>
+  <si>
+    <t>file3794-1543308590367.wav</t>
+  </si>
+  <si>
+    <t>Kính làm từ nhựa PC và xử lý nano có khả năng hạn chế vỡ, trầy xước, chống tia  UV, nâng lên hạ xuống dễ dàng</t>
+  </si>
+  <si>
+    <t>file1935-1543308649677.wav</t>
+  </si>
+  <si>
+    <t>"5bfd056c33f0711e6cc8340d"</t>
+  </si>
+  <si>
+    <t>Thanh Hoá</t>
+  </si>
+  <si>
+    <t>file2408-1543308649694.wav</t>
+  </si>
+  <si>
+    <t>file3980-1543308649698.wav</t>
+  </si>
+  <si>
+    <t>Thế rồi vì người chủ giàu có do ham chơi chẳng chịu lao động cho nên của cải cũng hết</t>
+  </si>
+  <si>
+    <t>file1110-1543308853247.wav</t>
+  </si>
+  <si>
+    <t>"5bfd063833f0711e6cc83411"</t>
+  </si>
+  <si>
+    <t>Vàng như mặt trăng; Treo trên vòm lá; Da nhẵn mịn màng; Thị ơi ! thơm quá</t>
+  </si>
+  <si>
+    <t>Quảng Trị</t>
+  </si>
+  <si>
+    <t>file2975-1543308853253.wav</t>
+  </si>
+  <si>
+    <t>Em cầm cái bát; Vô ý đánh rơi; Chắc bát đau lắm; Xin lỗi bát ơi</t>
+  </si>
+  <si>
+    <t>file3519-1543308853258.wav</t>
+  </si>
+  <si>
+    <t>Mẹ đi làm; Từ sáng sớm; Dậy thổi cơm; Kho thịt cá; Em kề má; Được mẹ thơm; Ôi mẹ ơi!Yêu mẹ lắm.</t>
+  </si>
+  <si>
+    <t>file140-1543358999512.wav</t>
+  </si>
+  <si>
+    <t>file235-1543358999877.wav</t>
+  </si>
+  <si>
+    <t>file3580-1543358999891.wav</t>
+  </si>
+  <si>
+    <t>file1866-1543360140856.wav</t>
+  </si>
+  <si>
+    <t>Quần áo không chỉ thơm mát sau khi giặt xong, mà còn giữ mùi hương suốt cả ngày</t>
+  </si>
+  <si>
+    <t>file2198-1543360140900.wav</t>
+  </si>
+  <si>
+    <t>Hãy bắt đầu “hành trình” tập thể hình tại nhà với 4 bài tập sau đây.</t>
+  </si>
+  <si>
+    <t>file3718-1543360141210.wav</t>
+  </si>
+  <si>
+    <t>file1814-1543360365668.wav</t>
+  </si>
+  <si>
+    <t>Chẳng đâu bằng chính nhà em; Có đàn chim sẻ bên thềm líu lo</t>
+  </si>
+  <si>
+    <t>file2262-1543360365690.wav</t>
+  </si>
+  <si>
+    <t>Gà con nhỏ xíu; Lông vàng dễ thương; Gặp ông trên đường; Cháu chào ông ạ; Gà con ngoan quá</t>
+  </si>
+  <si>
+    <t>file3497-1543360365764.wav</t>
+  </si>
+  <si>
+    <t>Chú chim bạc má; Đậu trên cành cao; Gặp ông chim chào; Cháu chào ông ạ; Bạn chim ngoan quá</t>
+  </si>
+  <si>
+    <t>file1768-1543360448017.wav</t>
+  </si>
+  <si>
+    <t>Họ hàng nhà kiến kéo ra; Kiến con đi trước, kiến già theo sau</t>
+  </si>
+  <si>
+    <t>file250-1543360448020.wav</t>
+  </si>
+  <si>
+    <t>Bác giun đào đất suốt ngày; Trưa nay chết dưới bóng cây sau nhà</t>
+  </si>
+  <si>
+    <t>file3272-1543360448022.wav</t>
+  </si>
+  <si>
+    <t>Kiến Lửa đốt đuốc đỏ làng; Kiến Kim chống gậy, kiến Càng nặng vai</t>
+  </si>
+  <si>
+    <t>file1634-1543360721116.wav</t>
+  </si>
+  <si>
+    <t>Nhưng hôm nào trăng khuyết; Trông giống con thuyền trôi; Em đi trăng theo bước; Như muốn cùng đi chơi</t>
+  </si>
+  <si>
+    <t>file2489-1543360721118.wav</t>
+  </si>
+  <si>
+    <t>Cây dây leo; Bé tí teo; Ở trong nhà; Lại bò ra; Ngoài cửa sổ</t>
+  </si>
+  <si>
+    <t>file3109-1543360721122.wav</t>
+  </si>
+  <si>
+    <t>Con bướm trắng; Lượn cành hồng; Gặp con ong; Đang bay vội; Bướm liền gọi</t>
+  </si>
+  <si>
+    <t>file1379-1543763498984.wav</t>
+  </si>
+  <si>
+    <t>Một sinh viên đang học tại chức được mời làm phản biện luận văn tốt nghiệp của sinh viên đào tạo chính quy</t>
+  </si>
+  <si>
+    <t>file2249-1543763499017.wav</t>
+  </si>
+  <si>
+    <t>Bộ phim điện ảnh đầu tay Người vợ ba của nữ đạo diễn Nguyễn Phương Anh, vừa giành giải thưởng Phim châu Á xuất sắc nhất</t>
+  </si>
+  <si>
+    <t>file3125-1543763499027.wav</t>
+  </si>
+  <si>
+    <t>Sau gần chục năm bàn thảo, dự kiến vào đầu năm 2019, Quỹ hỗ trợ phát triển điện ảnh sẽ chính thức được thành lập</t>
+  </si>
+  <si>
+    <t>file1469-1543767840362.wav</t>
+  </si>
+  <si>
+    <t>Lòng trắng lòng đỏ; Thành mỏ thành chân; Cái mỏ tí hon; Cái chân bé xíu</t>
+  </si>
+  <si>
+    <t>file2631-1543767840369.wav</t>
+  </si>
+  <si>
+    <t>Sân nhà em sáng quá; Nhờ ánh trăng sáng ngời; Trăng tròn như cái đĩa; Lơ lửng mà không rơi</t>
+  </si>
+  <si>
+    <t>file3371-1543767840376.wav</t>
+  </si>
+  <si>
+    <t>Lông vàng mát dịu; Mắt đen sáng ngời; Ơi chú gà ơi; Ta yêu chú lắm</t>
+  </si>
+  <si>
+    <t>file1155-1543767912703.wav</t>
+  </si>
+  <si>
+    <t>"5c04076a5584fa2144451039"</t>
+  </si>
+  <si>
+    <t>Chỉ có về Bảo Lộc mới có được không khí Trung Thu vui như thế này</t>
+  </si>
+  <si>
+    <t>file2981-1543767913203.wav</t>
+  </si>
+  <si>
+    <t>Người đàn ông ấy chăm chú điền thông tin cho cả nhà trong khi 3 mẹ con nó nhảy nhót tung tăng</t>
+  </si>
+  <si>
+    <t>file3989-1543767913274.wav</t>
+  </si>
+  <si>
+    <t>Ông Hoan cho biết việc thực hiện sẽ kiểm tra làm rõ các tình tiết, có xem xét quá trình và hoàn cảnh lịch sử từng vụ việc</t>
+  </si>
+  <si>
+    <t>file1731-1543767988042.wav</t>
+  </si>
+  <si>
+    <t>file2247-1543767988046.wav</t>
+  </si>
+  <si>
+    <t>file3433-1543767988073.wav</t>
+  </si>
+  <si>
+    <t>file1336-1543768276833.wav</t>
+  </si>
+  <si>
+    <t>Có ao muống với cá cờ; Em là chị Tấm đợi chờ bống lên</t>
+  </si>
+  <si>
+    <t>file2580-1543768276838.wav</t>
+  </si>
+  <si>
+    <t>file3782-1543768276844.wav</t>
+  </si>
+  <si>
+    <t>file142-1543768297917.wav</t>
+  </si>
+  <si>
+    <t>file2729-1543768297938.wav</t>
+  </si>
+  <si>
+    <t>file3506-1543768297940.wav</t>
+  </si>
+  <si>
+    <t>file1490-1543770490946.wav</t>
+  </si>
+  <si>
+    <t>Ban đầu nó nhất quyết không chịu làm nhưng bị đánh nhiều nên rồi cũng phải làm việc.</t>
+  </si>
+  <si>
+    <t>file2686-1543770490954.wav</t>
+  </si>
+  <si>
+    <t>Con cá vàng; Quàng khăn lụa; Giữ nước trong; Cùng bạn múa</t>
+  </si>
+  <si>
+    <t>file3330-1543770490960.wav</t>
+  </si>
+  <si>
+    <t>Con cua tám cẳng; Nghênh ngang hai càng Đeo chiếc yếm trắng Dạo chơi đồng làng</t>
+  </si>
+  <si>
+    <t>file1677-1543771953585.wav</t>
+  </si>
+  <si>
+    <t>file2497-1543771953607.wav</t>
+  </si>
+  <si>
+    <t>file3696-1543771953618.wav</t>
+  </si>
+  <si>
+    <t>file1635-1543797004328.wav</t>
+  </si>
+  <si>
+    <t>"5c04790ea6263602e42bc337"</t>
+  </si>
+  <si>
+    <t>Có thu hồi đất tái định cư giao sai?</t>
+  </si>
+  <si>
+    <t>&lt;10</t>
+  </si>
+  <si>
+    <t>file2411-1543797005345.wav</t>
+  </si>
+  <si>
+    <t>Liên quan đến xử lý trách nhiệm cá nhân gây ra sai phạm Thủ Thiêm, ông Trần Vĩnh Tuyến cho rằng cần thời gian.</t>
+  </si>
+  <si>
+    <t>file3653-1543797005443.wav</t>
+  </si>
+  <si>
+    <t>Thành phố mong muốn sẽ giải quyết trước thời gian đó để bà con có cái tết vui.</t>
+  </si>
+  <si>
+    <t>file1206-1543799675778.wav</t>
+  </si>
+  <si>
+    <t>Bắp cải xanh; Xanh mát mát; Lá cải sắp; Sắp vòng tròn; Búp cải non; Nằm ngủ giữa</t>
+  </si>
+  <si>
+    <t>file223-1543799675811.wav</t>
+  </si>
+  <si>
+    <t>Chân được đi dép; Thấy êm êm là; Dép cũng vui lắm; Được tìm khắp nhà.</t>
+  </si>
+  <si>
+    <t>file3368-1543799675930.wav</t>
+  </si>
+  <si>
+    <t>file1449-1543799835376.wav</t>
+  </si>
+  <si>
+    <t>file2337-1543799835407.wav</t>
+  </si>
+  <si>
+    <t>file3783-1543799835441.wav</t>
+  </si>
+  <si>
+    <t>Ngồi trên hòn đá; Một anh cóc vàng; Cất giọng oang oang; Cháu chào ông ạ; Cóc vàng ngoan quá!</t>
+  </si>
+  <si>
+    <t>file1487-1543800445909.wav</t>
+  </si>
+  <si>
+    <t>Thời đó có một chuyện vô tiền khoáng hậu trong lịch sử của trường</t>
+  </si>
+  <si>
+    <t>file2210-1543800445928.wav</t>
+  </si>
+  <si>
+    <t>Thời gian qua, các quỹ hỗ trợ đầu tư để phát triển điện ảnh liên tiếp ra mắt, mở ra nhiều cơ hội cho phim Việt.</t>
+  </si>
+  <si>
+    <t>file3187-1543800445956.wav</t>
+  </si>
+  <si>
+    <t>Quỹ này tập trung ưu tiên cho những dự án phim điện ảnh mà họ nhận thấy có xác suất sinh lợi cao</t>
+  </si>
+  <si>
+    <t>file1749-1543803548171.wav</t>
+  </si>
+  <si>
+    <t>file2331-1543803548193.wav</t>
+  </si>
+  <si>
+    <t>file3895-1543803548201.wav</t>
+  </si>
+  <si>
+    <t>file1206-1543803607988.wav</t>
+  </si>
+  <si>
+    <t>file2178-1543803608004.wav</t>
+  </si>
+  <si>
+    <t>Đám ma đưa đến là dài; Qua những vườn chuối, vườn khoai, vườn cà</t>
+  </si>
+  <si>
+    <t>file3574-1543803608033.wav</t>
+  </si>
+  <si>
+    <t>file1779-1543803648632.wav</t>
+  </si>
+  <si>
+    <t>file2589-1543803648642.wav</t>
+  </si>
+  <si>
+    <t>file3571-1543803648709.wav</t>
+  </si>
+  <si>
+    <t>Có bà chuối mật lưng ong; Có ông ngô bắp râu hồng như tơ</t>
+  </si>
+  <si>
+    <t>file1955-1543892033980.wav</t>
+  </si>
+  <si>
+    <t>"5c05ec423f0c181710bfcb18"</t>
+  </si>
+  <si>
+    <t>file2621-1543892033997.wav</t>
+  </si>
+  <si>
+    <t>file3283-1543892034017.wav</t>
+  </si>
+  <si>
+    <t>file1968-1543933035667.wav</t>
+  </si>
+  <si>
+    <t>file2977-1543933035676.wav</t>
+  </si>
+  <si>
+    <t>file362-1543933035683.wav</t>
+  </si>
+  <si>
+    <t>file1682-1543933263844.wav</t>
+  </si>
+  <si>
+    <t>Bạn mới đến trường; Hãy còn nhút nhát; Em dạy bạn hát; Rủ bạn cùng chơi; Cô thấy cô cười; Cô khen đoàn kết</t>
+  </si>
+  <si>
+    <t>file2942-1543933263846.wav</t>
+  </si>
+  <si>
+    <t>Mẹ cài khăn cho bé; Gió thổi khăn bay bay; Cái mũi mà sụt sịt; Khăn nhắc bé lau ngay</t>
+  </si>
+  <si>
+    <t>file3202-1543933263849.wav</t>
+  </si>
+  <si>
+    <t>file1442-1543933349394.wav</t>
+  </si>
+  <si>
+    <t>file2203-1543933349398.wav</t>
+  </si>
+  <si>
+    <t>file319-1543933349401.wav</t>
+  </si>
+  <si>
+    <t>file1180-1543933488171.wav</t>
+  </si>
+  <si>
+    <t>file2716-1543933488174.wav</t>
+  </si>
+  <si>
+    <t>file3113-1543933488178.wav</t>
+  </si>
+  <si>
+    <t>file1177-1543933524531.wav</t>
+  </si>
+  <si>
+    <t>file2310-1543933524537.wav</t>
+  </si>
+  <si>
+    <t>file3112-1543933524541.wav</t>
+  </si>
+  <si>
+    <t>file131-1543933609735.wav</t>
+  </si>
+  <si>
+    <t>file2221-1543933609738.wav</t>
+  </si>
+  <si>
+    <t>file3919-1543933609740.wav</t>
+  </si>
+  <si>
+    <t>file1881-1543934308472.wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi nghe anh nhạc trưởng; Kéo kèn lên mở màn; Dàn đồng ca cộng hưởng; Ve ve ve… rộn ràng </t>
+  </si>
+  <si>
+    <t>file294-1543934308477.wav</t>
+  </si>
+  <si>
+    <t>file3948-1543934308484.wav</t>
+  </si>
+  <si>
+    <t>file1444-1543934464288.wav</t>
+  </si>
+  <si>
+    <t>Mẹ mua cho bé; Mấy chú gà con; Đứng trên mâm tròn; Đua nhau mổ thóc; Tốc, tốc, tốc, tốc!</t>
+  </si>
+  <si>
+    <t>file2611-1543934464289.wav</t>
+  </si>
+  <si>
+    <t>file3115-1543934464290.wav</t>
+  </si>
+  <si>
+    <t>file1775-1543934500387.wav</t>
+  </si>
+  <si>
+    <t>file2685-1543934500388.wav</t>
+  </si>
+  <si>
+    <t>file3806-1543934500390.wav</t>
+  </si>
+  <si>
+    <t>file1647-1543934992401.wav</t>
+  </si>
+  <si>
+    <t>Một người nhà giàu mở tiệc lớn, anh ta mời nhiều bạn bè và những người quen biết</t>
+  </si>
+  <si>
+    <t>file2345-1543934992403.wav</t>
+  </si>
+  <si>
+    <t>Ôi sung sướng làm sao khi mình đã đến đây! Đâu phải lúc nào mình cũng được như thế này</t>
+  </si>
+  <si>
+    <t>file3381-1543934992408.wav</t>
+  </si>
+  <si>
+    <t>Sao anh không bỏ đi chọn lấy người chủ khác cho đỡ vất vả hơn</t>
+  </si>
+  <si>
+    <t>file1608-1543935023897.wav</t>
+  </si>
+  <si>
+    <t>file2896-1543935023900.wav</t>
+  </si>
+  <si>
+    <t>file3628-1543935023901.wav</t>
+  </si>
+  <si>
+    <t>Làm thế nào để liên hệ với bộ phận Chăm Sóc Khách Hàng của Shopee?</t>
+  </si>
+  <si>
+    <t>file1303-1543935050823.wav</t>
+  </si>
+  <si>
+    <t>Một lãnh đạo Công an quận Ba Đình cũng xác nhận có phát hiện thi thể tại khu nhà trọ của ông Hiệp</t>
+  </si>
+  <si>
+    <t>file250-1543935050826.wav</t>
+  </si>
+  <si>
+    <t>Đội Cảnh sát PCCC số 3 đã huy động 3 xe cứu hỏa chuyên dụng cùng hàng chục chiến sĩ tới hiện trường</t>
+  </si>
+  <si>
+    <t>file3935-1543935050828.wav</t>
+  </si>
+  <si>
+    <t>Đến khoảng 20 giờ cùng ngày, đám cháy cơ bản được khống chế</t>
+  </si>
+  <si>
+    <t>file1753-1543935107653.wav</t>
+  </si>
+  <si>
+    <t>file2719-1543935107655.wav</t>
+  </si>
+  <si>
+    <t>file3817-1543935107656.wav</t>
+  </si>
+  <si>
+    <t>file1736-1543935147298.wav</t>
+  </si>
+  <si>
+    <t>file2753-1543935147303.wav</t>
+  </si>
+  <si>
+    <t>file3702-1543935147314.wav</t>
+  </si>
+  <si>
+    <t>file1584-1543937669632.wav</t>
+  </si>
+  <si>
+    <t>"5c069e864511f1214c5ef68c"</t>
+  </si>
+  <si>
+    <t>Với sự lãnh đạo sáng suốt của mình đã xây dựng nên quan hệ hợp tác gắn bó trên các lĩnh vực sâu rộng giữa hai đất nước,</t>
+  </si>
+  <si>
+    <t>Bắc (lẫn l và n)</t>
+  </si>
+  <si>
+    <t>file2606-1543937669712.wav</t>
+  </si>
+  <si>
+    <t>Tổ hợp nhà máy sản xuất ôtô VinFast được triển khai trên khu đất rộng 335 ha tại khu công nghiệp Đình Vũ – Cát Hải.</t>
+  </si>
+  <si>
+    <t>file3409-1543937669733.wav</t>
+  </si>
+  <si>
+    <t>Khu nhà máy sản xuất ôtô, công nghiệp phụ trợ, Trung tâm đào tạo và Viện Nghiên cứu và Phát triển</t>
+  </si>
+  <si>
+    <t>file1169-1543939917326.wav</t>
+  </si>
+  <si>
+    <t>file2992-1543939917328.wav</t>
+  </si>
+  <si>
+    <t>file3948-1543939917331.wav</t>
+  </si>
+  <si>
+    <t>file1827-1543940456587.wav</t>
+  </si>
+  <si>
+    <t>file2586-1543940456589.wav</t>
+  </si>
+  <si>
+    <t>file3853-1543940456591.wav</t>
   </si>
 </sst>
 </file>
@@ -444,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I145"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -571,6 +1261,4095 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>5205</v>
+      </c>
+      <c r="C5">
+        <v>48000</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>5802</v>
+      </c>
+      <c r="C6">
+        <v>48000</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>5205</v>
+      </c>
+      <c r="C7">
+        <v>48000</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>1194</v>
+      </c>
+      <c r="C8">
+        <v>48000</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>1365</v>
+      </c>
+      <c r="C9">
+        <v>48000</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>1194</v>
+      </c>
+      <c r="C10">
+        <v>48000</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>3413</v>
+      </c>
+      <c r="C11">
+        <v>48000</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>938</v>
+      </c>
+      <c r="C12">
+        <v>48000</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>853</v>
+      </c>
+      <c r="C13">
+        <v>48000</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>23466</v>
+      </c>
+      <c r="C14">
+        <v>48000</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>938</v>
+      </c>
+      <c r="C15">
+        <v>48000</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>1194</v>
+      </c>
+      <c r="C16">
+        <v>48000</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <v>7765</v>
+      </c>
+      <c r="C17">
+        <v>48000</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <v>768</v>
+      </c>
+      <c r="C18">
+        <v>48000</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>768</v>
+      </c>
+      <c r="C19">
+        <v>48000</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20">
+        <v>938</v>
+      </c>
+      <c r="C20">
+        <v>48000</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21">
+        <v>597</v>
+      </c>
+      <c r="C21">
+        <v>48000</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22">
+        <v>512</v>
+      </c>
+      <c r="C22">
+        <v>48000</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>768</v>
+      </c>
+      <c r="C23">
+        <v>48000</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24">
+        <v>768</v>
+      </c>
+      <c r="C24">
+        <v>48000</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25">
+        <v>768</v>
+      </c>
+      <c r="C25">
+        <v>48000</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26">
+        <v>1280</v>
+      </c>
+      <c r="C26">
+        <v>48000</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27">
+        <v>1024</v>
+      </c>
+      <c r="C27">
+        <v>48000</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28">
+        <v>768</v>
+      </c>
+      <c r="C28">
+        <v>48000</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29">
+        <v>512</v>
+      </c>
+      <c r="C29">
+        <v>48000</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30">
+        <v>256</v>
+      </c>
+      <c r="C30">
+        <v>48000</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31">
+        <v>597</v>
+      </c>
+      <c r="C31">
+        <v>48000</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32">
+        <v>6229</v>
+      </c>
+      <c r="C32">
+        <v>48000</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33">
+        <v>1109</v>
+      </c>
+      <c r="C33">
+        <v>48000</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34">
+        <v>938</v>
+      </c>
+      <c r="C34">
+        <v>48000</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35">
+        <v>4864</v>
+      </c>
+      <c r="C35">
+        <v>48000</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36">
+        <v>3328</v>
+      </c>
+      <c r="C36">
+        <v>48000</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37">
+        <v>5546</v>
+      </c>
+      <c r="C37">
+        <v>48000</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38">
+        <v>1792</v>
+      </c>
+      <c r="C38">
+        <v>48000</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39">
+        <v>4010</v>
+      </c>
+      <c r="C39">
+        <v>48000</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40">
+        <v>1024</v>
+      </c>
+      <c r="C40">
+        <v>48000</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41">
+        <v>512</v>
+      </c>
+      <c r="C41">
+        <v>48000</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G41" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42">
+        <v>426</v>
+      </c>
+      <c r="C42">
+        <v>48000</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43">
+        <v>853</v>
+      </c>
+      <c r="C43">
+        <v>48000</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44">
+        <v>512</v>
+      </c>
+      <c r="C44">
+        <v>48000</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" t="s">
+        <v>101</v>
+      </c>
+      <c r="G44" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45">
+        <v>597</v>
+      </c>
+      <c r="C45">
+        <v>48000</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" t="s">
+        <v>103</v>
+      </c>
+      <c r="G45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46">
+        <v>512</v>
+      </c>
+      <c r="C46">
+        <v>48000</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" t="s">
+        <v>105</v>
+      </c>
+      <c r="G46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47">
+        <v>2901</v>
+      </c>
+      <c r="C47">
+        <v>48000</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48">
+        <v>2730</v>
+      </c>
+      <c r="C48">
+        <v>48000</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49">
+        <v>2901</v>
+      </c>
+      <c r="C49">
+        <v>48000</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>111</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50">
+        <v>1.71</v>
+      </c>
+      <c r="C50">
+        <v>48000</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>113</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51">
+        <v>1.45</v>
+      </c>
+      <c r="C51">
+        <v>48000</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>115</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52">
+        <v>1.62</v>
+      </c>
+      <c r="C52">
+        <v>48000</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>117</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53">
+        <v>7338</v>
+      </c>
+      <c r="C53">
+        <v>48000</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" t="s">
+        <v>120</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54">
+        <v>1792</v>
+      </c>
+      <c r="C54">
+        <v>48000</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" t="s">
+        <v>122</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55">
+        <v>13312</v>
+      </c>
+      <c r="C55">
+        <v>48000</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>119</v>
+      </c>
+      <c r="F55" t="s">
+        <v>124</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56">
+        <v>1.62</v>
+      </c>
+      <c r="C56">
+        <v>48000</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>54</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57">
+        <v>1.45</v>
+      </c>
+      <c r="C57">
+        <v>48000</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58">
+        <v>1.54</v>
+      </c>
+      <c r="C58">
+        <v>48000</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59">
+        <v>2.13</v>
+      </c>
+      <c r="C59">
+        <v>48000</v>
+      </c>
+      <c r="D59">
+        <v>30.4</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>129</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60">
+        <v>1.11</v>
+      </c>
+      <c r="C60">
+        <v>48000</v>
+      </c>
+      <c r="D60">
+        <v>27.87</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61">
+        <v>1.28</v>
+      </c>
+      <c r="C61">
+        <v>48000</v>
+      </c>
+      <c r="D61">
+        <v>32.87</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>43</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62">
+        <v>1.96</v>
+      </c>
+      <c r="C62">
+        <v>48000</v>
+      </c>
+      <c r="D62">
+        <v>9.74</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>107</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63">
+        <v>1.54</v>
+      </c>
+      <c r="C63">
+        <v>48000</v>
+      </c>
+      <c r="D63">
+        <v>12.41</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
+        <v>109</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64">
+        <v>1.11</v>
+      </c>
+      <c r="C64">
+        <v>48000</v>
+      </c>
+      <c r="D64">
+        <v>10.51</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
+        <v>111</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65">
+        <v>1.37</v>
+      </c>
+      <c r="C65">
+        <v>48000</v>
+      </c>
+      <c r="D65">
+        <v>18.87</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>136</v>
+      </c>
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66">
+        <v>1.37</v>
+      </c>
+      <c r="C66">
+        <v>48000</v>
+      </c>
+      <c r="D66">
+        <v>20.32</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>138</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67">
+        <v>1.11</v>
+      </c>
+      <c r="C67">
+        <v>48000</v>
+      </c>
+      <c r="D67">
+        <v>17.83</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>140</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68">
+        <v>4.44</v>
+      </c>
+      <c r="C68">
+        <v>48000</v>
+      </c>
+      <c r="D68">
+        <v>34.67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
+        <v>84</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69">
+        <v>3.41</v>
+      </c>
+      <c r="C69">
+        <v>48000</v>
+      </c>
+      <c r="D69">
+        <v>36.03</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
+        <v>86</v>
+      </c>
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70">
+        <v>3.75</v>
+      </c>
+      <c r="C70">
+        <v>48000</v>
+      </c>
+      <c r="D70">
+        <v>34.99</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71">
+        <v>88746</v>
+      </c>
+      <c r="C71">
+        <v>48000</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>145</v>
+      </c>
+      <c r="F71" t="s">
+        <v>146</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" t="s">
+        <v>147</v>
+      </c>
+      <c r="I71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72">
+        <v>768</v>
+      </c>
+      <c r="C72">
+        <v>48000</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>145</v>
+      </c>
+      <c r="F72" t="s">
+        <v>149</v>
+      </c>
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" t="s">
+        <v>147</v>
+      </c>
+      <c r="I72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73">
+        <v>1024</v>
+      </c>
+      <c r="C73">
+        <v>48000</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>145</v>
+      </c>
+      <c r="F73" t="s">
+        <v>151</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" t="s">
+        <v>147</v>
+      </c>
+      <c r="I73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74">
+        <v>9.73</v>
+      </c>
+      <c r="C74">
+        <v>48000</v>
+      </c>
+      <c r="D74">
+        <v>32.08</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>153</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75">
+        <v>6.14</v>
+      </c>
+      <c r="C75">
+        <v>48000</v>
+      </c>
+      <c r="D75">
+        <v>30.16</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>155</v>
+      </c>
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76">
+        <v>6.91</v>
+      </c>
+      <c r="C76">
+        <v>48000</v>
+      </c>
+      <c r="D76">
+        <v>36.22</v>
+      </c>
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
+        <v>74</v>
+      </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77">
+        <v>9.22</v>
+      </c>
+      <c r="C77">
+        <v>48000</v>
+      </c>
+      <c r="D77">
+        <v>34.29</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s">
+        <v>91</v>
+      </c>
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78">
+        <v>11.01</v>
+      </c>
+      <c r="C78">
+        <v>48000</v>
+      </c>
+      <c r="D78">
+        <v>32.62</v>
+      </c>
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79">
+        <v>11.09</v>
+      </c>
+      <c r="C79">
+        <v>48000</v>
+      </c>
+      <c r="D79">
+        <v>31.56</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>160</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80">
+        <v>4.86</v>
+      </c>
+      <c r="C80">
+        <v>48000</v>
+      </c>
+      <c r="D80">
+        <v>31.11</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>162</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81">
+        <v>6.23</v>
+      </c>
+      <c r="C81">
+        <v>48000</v>
+      </c>
+      <c r="D81">
+        <v>29.67</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>164</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82">
+        <v>5.89</v>
+      </c>
+      <c r="C82">
+        <v>48000</v>
+      </c>
+      <c r="D82">
+        <v>29.46</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>166</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83">
+        <v>1.02</v>
+      </c>
+      <c r="C83">
+        <v>48000</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>120</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84">
+        <v>2.22</v>
+      </c>
+      <c r="C84">
+        <v>48000</v>
+      </c>
+      <c r="D84">
+        <v>26.49</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>122</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85">
+        <v>3.5</v>
+      </c>
+      <c r="C85">
+        <v>48000</v>
+      </c>
+      <c r="D85">
+        <v>25.35</v>
+      </c>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>124</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86">
+        <v>3.24</v>
+      </c>
+      <c r="C86">
+        <v>48000</v>
+      </c>
+      <c r="D86">
+        <v>29.05</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>99</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87">
+        <v>2.05</v>
+      </c>
+      <c r="C87">
+        <v>48000</v>
+      </c>
+      <c r="D87">
+        <v>30.27</v>
+      </c>
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
+        <v>172</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88">
+        <v>2.05</v>
+      </c>
+      <c r="C88">
+        <v>48000</v>
+      </c>
+      <c r="D88">
+        <v>31.66</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89">
+        <v>4.35</v>
+      </c>
+      <c r="C89">
+        <v>48000</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
+        <v>93</v>
+      </c>
+      <c r="G89" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90">
+        <v>5.46</v>
+      </c>
+      <c r="C90">
+        <v>48000</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s">
+        <v>160</v>
+      </c>
+      <c r="G90" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91">
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <v>48000</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" t="s">
+        <v>177</v>
+      </c>
+      <c r="G91" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>178</v>
+      </c>
+      <c r="B92">
+        <v>5.21</v>
+      </c>
+      <c r="C92">
+        <v>48000</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>179</v>
+      </c>
+      <c r="F92" t="s">
+        <v>177</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93">
+        <v>5.46</v>
+      </c>
+      <c r="C93">
+        <v>48000</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>179</v>
+      </c>
+      <c r="F93" t="s">
+        <v>129</v>
+      </c>
+      <c r="G93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>181</v>
+      </c>
+      <c r="B94">
+        <v>6.66</v>
+      </c>
+      <c r="C94">
+        <v>48000</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>179</v>
+      </c>
+      <c r="F94" t="s">
+        <v>41</v>
+      </c>
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>182</v>
+      </c>
+      <c r="B95">
+        <v>2.13</v>
+      </c>
+      <c r="C95">
+        <v>48000</v>
+      </c>
+      <c r="D95">
+        <v>3.51</v>
+      </c>
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" t="s">
+        <v>164</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>183</v>
+      </c>
+      <c r="B96">
+        <v>2.39</v>
+      </c>
+      <c r="C96">
+        <v>48000</v>
+      </c>
+      <c r="D96">
+        <v>11.67</v>
+      </c>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" t="s">
+        <v>166</v>
+      </c>
+      <c r="G96" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>184</v>
+      </c>
+      <c r="B97">
+        <v>1.54</v>
+      </c>
+      <c r="C97">
+        <v>48000</v>
+      </c>
+      <c r="D97">
+        <v>-0.21</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" t="s">
+        <v>107</v>
+      </c>
+      <c r="G97" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>185</v>
+      </c>
+      <c r="B98">
+        <v>1.28</v>
+      </c>
+      <c r="C98">
+        <v>48000</v>
+      </c>
+      <c r="D98">
+        <v>9.46</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s">
+        <v>186</v>
+      </c>
+      <c r="G98" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" t="s">
+        <v>13</v>
+      </c>
+      <c r="I98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>187</v>
+      </c>
+      <c r="B99">
+        <v>1.02</v>
+      </c>
+      <c r="C99">
+        <v>48000</v>
+      </c>
+      <c r="D99">
+        <v>12.5</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" t="s">
+        <v>188</v>
+      </c>
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100">
+        <v>1.11</v>
+      </c>
+      <c r="C100">
+        <v>48000</v>
+      </c>
+      <c r="D100">
+        <v>19.8</v>
+      </c>
+      <c r="E100" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" t="s">
+        <v>153</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>190</v>
+      </c>
+      <c r="B101">
+        <v>1.54</v>
+      </c>
+      <c r="C101">
+        <v>48000</v>
+      </c>
+      <c r="D101">
+        <v>12.06</v>
+      </c>
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" t="s">
+        <v>155</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>191</v>
+      </c>
+      <c r="B102">
+        <v>1.96</v>
+      </c>
+      <c r="C102">
+        <v>48000</v>
+      </c>
+      <c r="D102">
+        <v>18.46</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s">
+        <v>74</v>
+      </c>
+      <c r="G102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>192</v>
+      </c>
+      <c r="B103">
+        <v>2.39</v>
+      </c>
+      <c r="C103">
+        <v>48000</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>77</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>193</v>
+      </c>
+      <c r="B104">
+        <v>1.45</v>
+      </c>
+      <c r="C104">
+        <v>48000</v>
+      </c>
+      <c r="D104">
+        <v>12.7</v>
+      </c>
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s">
+        <v>172</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>194</v>
+      </c>
+      <c r="B105">
+        <v>2.3</v>
+      </c>
+      <c r="C105">
+        <v>48000</v>
+      </c>
+      <c r="D105">
+        <v>19.65</v>
+      </c>
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" t="s">
+        <v>13</v>
+      </c>
+      <c r="I105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>195</v>
+      </c>
+      <c r="B106">
+        <v>1.79</v>
+      </c>
+      <c r="C106">
+        <v>48000</v>
+      </c>
+      <c r="D106">
+        <v>6.18</v>
+      </c>
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" t="s">
+        <v>16</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>196</v>
+      </c>
+      <c r="B107">
+        <v>1.45</v>
+      </c>
+      <c r="C107">
+        <v>48000</v>
+      </c>
+      <c r="D107">
+        <v>12.7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s">
+        <v>172</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>197</v>
+      </c>
+      <c r="B108">
+        <v>2.3</v>
+      </c>
+      <c r="C108">
+        <v>48000</v>
+      </c>
+      <c r="D108">
+        <v>19.65</v>
+      </c>
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>198</v>
+      </c>
+      <c r="B109">
+        <v>1.79</v>
+      </c>
+      <c r="C109">
+        <v>48000</v>
+      </c>
+      <c r="D109">
+        <v>6.18</v>
+      </c>
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" t="s">
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>199</v>
+      </c>
+      <c r="B110">
+        <v>1.02</v>
+      </c>
+      <c r="C110">
+        <v>48000</v>
+      </c>
+      <c r="D110">
+        <v>15.97</v>
+      </c>
+      <c r="E110" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" t="s">
+        <v>86</v>
+      </c>
+      <c r="G110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" t="s">
+        <v>13</v>
+      </c>
+      <c r="I110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>200</v>
+      </c>
+      <c r="B111">
+        <v>1.19</v>
+      </c>
+      <c r="C111">
+        <v>48000</v>
+      </c>
+      <c r="D111">
+        <v>17.11</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" t="s">
+        <v>13</v>
+      </c>
+      <c r="I111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>201</v>
+      </c>
+      <c r="B112">
+        <v>1.28</v>
+      </c>
+      <c r="C112">
+        <v>48000</v>
+      </c>
+      <c r="D112">
+        <v>22.25</v>
+      </c>
+      <c r="E112" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" t="s">
+        <v>22</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>202</v>
+      </c>
+      <c r="B113">
+        <v>4.01</v>
+      </c>
+      <c r="C113">
+        <v>48000</v>
+      </c>
+      <c r="D113">
+        <v>-2.68</v>
+      </c>
+      <c r="E113" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" t="s">
+        <v>203</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" t="s">
+        <v>13</v>
+      </c>
+      <c r="I113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>204</v>
+      </c>
+      <c r="B114">
+        <v>4.27</v>
+      </c>
+      <c r="C114">
+        <v>48000</v>
+      </c>
+      <c r="D114">
+        <v>5.8</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s">
+        <v>84</v>
+      </c>
+      <c r="G114" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" t="s">
+        <v>13</v>
+      </c>
+      <c r="I114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>205</v>
+      </c>
+      <c r="B115">
+        <v>2.9</v>
+      </c>
+      <c r="C115">
+        <v>48000</v>
+      </c>
+      <c r="D115">
+        <v>10.46</v>
+      </c>
+      <c r="E115" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" t="s">
+        <v>86</v>
+      </c>
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" t="s">
+        <v>13</v>
+      </c>
+      <c r="I115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>206</v>
+      </c>
+      <c r="B116">
+        <v>0.85</v>
+      </c>
+      <c r="C116">
+        <v>48000</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" t="s">
+        <v>207</v>
+      </c>
+      <c r="G116" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" t="s">
+        <v>13</v>
+      </c>
+      <c r="I116" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>208</v>
+      </c>
+      <c r="B117">
+        <v>0.77</v>
+      </c>
+      <c r="C117">
+        <v>48000</v>
+      </c>
+      <c r="D117">
+        <v>13.11</v>
+      </c>
+      <c r="E117" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" t="s">
+        <v>186</v>
+      </c>
+      <c r="G117" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" t="s">
+        <v>13</v>
+      </c>
+      <c r="I117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>209</v>
+      </c>
+      <c r="B118">
+        <v>0.43</v>
+      </c>
+      <c r="C118">
+        <v>48000</v>
+      </c>
+      <c r="D118">
+        <v>1.97</v>
+      </c>
+      <c r="E118" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118" t="s">
+        <v>188</v>
+      </c>
+      <c r="G118" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" t="s">
+        <v>13</v>
+      </c>
+      <c r="I118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>210</v>
+      </c>
+      <c r="B119">
+        <v>1.11</v>
+      </c>
+      <c r="C119">
+        <v>48000</v>
+      </c>
+      <c r="D119">
+        <v>14.66</v>
+      </c>
+      <c r="E119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" t="s">
+        <v>86</v>
+      </c>
+      <c r="G119" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" t="s">
+        <v>13</v>
+      </c>
+      <c r="I119" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>211</v>
+      </c>
+      <c r="B120">
+        <v>0.77</v>
+      </c>
+      <c r="C120">
+        <v>48000</v>
+      </c>
+      <c r="D120">
+        <v>10.6</v>
+      </c>
+      <c r="E120" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120" t="s">
+        <v>20</v>
+      </c>
+      <c r="G120" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" t="s">
+        <v>13</v>
+      </c>
+      <c r="I120" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>212</v>
+      </c>
+      <c r="B121">
+        <v>0.43</v>
+      </c>
+      <c r="C121">
+        <v>48000</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" t="s">
+        <v>22</v>
+      </c>
+      <c r="G121" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" t="s">
+        <v>13</v>
+      </c>
+      <c r="I121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>213</v>
+      </c>
+      <c r="B122">
+        <v>1.02</v>
+      </c>
+      <c r="C122">
+        <v>48000</v>
+      </c>
+      <c r="D122">
+        <v>3.84</v>
+      </c>
+      <c r="E122" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" t="s">
+        <v>214</v>
+      </c>
+      <c r="G122" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" t="s">
+        <v>13</v>
+      </c>
+      <c r="I122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>215</v>
+      </c>
+      <c r="B123">
+        <v>0.94</v>
+      </c>
+      <c r="C123">
+        <v>48000</v>
+      </c>
+      <c r="D123">
+        <v>7.67</v>
+      </c>
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" t="s">
+        <v>216</v>
+      </c>
+      <c r="G123" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" t="s">
+        <v>13</v>
+      </c>
+      <c r="I123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>217</v>
+      </c>
+      <c r="B124">
+        <v>0.68</v>
+      </c>
+      <c r="C124">
+        <v>48000</v>
+      </c>
+      <c r="D124">
+        <v>9.66</v>
+      </c>
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" t="s">
+        <v>218</v>
+      </c>
+      <c r="G124" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" t="s">
+        <v>13</v>
+      </c>
+      <c r="I124" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>219</v>
+      </c>
+      <c r="B125">
+        <v>1.11</v>
+      </c>
+      <c r="C125">
+        <v>48000</v>
+      </c>
+      <c r="D125">
+        <v>6.06</v>
+      </c>
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" t="s">
+        <v>63</v>
+      </c>
+      <c r="G125" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" t="s">
+        <v>13</v>
+      </c>
+      <c r="I125" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>220</v>
+      </c>
+      <c r="B126">
+        <v>0.77</v>
+      </c>
+      <c r="C126">
+        <v>48000</v>
+      </c>
+      <c r="D126">
+        <v>13.44</v>
+      </c>
+      <c r="E126" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" t="s">
+        <v>65</v>
+      </c>
+      <c r="G126" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" t="s">
+        <v>13</v>
+      </c>
+      <c r="I126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>221</v>
+      </c>
+      <c r="B127">
+        <v>0.68</v>
+      </c>
+      <c r="C127">
+        <v>48000</v>
+      </c>
+      <c r="D127">
+        <v>13.04</v>
+      </c>
+      <c r="E127" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" t="s">
+        <v>222</v>
+      </c>
+      <c r="G127" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" t="s">
+        <v>13</v>
+      </c>
+      <c r="I127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>223</v>
+      </c>
+      <c r="B128">
+        <v>1.19</v>
+      </c>
+      <c r="C128">
+        <v>48000</v>
+      </c>
+      <c r="D128">
+        <v>10.84</v>
+      </c>
+      <c r="E128" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" t="s">
+        <v>224</v>
+      </c>
+      <c r="G128" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" t="s">
+        <v>13</v>
+      </c>
+      <c r="I128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>225</v>
+      </c>
+      <c r="B129">
+        <v>0.77</v>
+      </c>
+      <c r="C129">
+        <v>48000</v>
+      </c>
+      <c r="D129">
+        <v>10.77</v>
+      </c>
+      <c r="E129" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" t="s">
+        <v>226</v>
+      </c>
+      <c r="G129" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" t="s">
+        <v>13</v>
+      </c>
+      <c r="I129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>227</v>
+      </c>
+      <c r="B130">
+        <v>0.77</v>
+      </c>
+      <c r="C130">
+        <v>48000</v>
+      </c>
+      <c r="D130">
+        <v>-7.51</v>
+      </c>
+      <c r="E130" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" t="s">
+        <v>228</v>
+      </c>
+      <c r="G130" t="s">
+        <v>12</v>
+      </c>
+      <c r="H130" t="s">
+        <v>13</v>
+      </c>
+      <c r="I130" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>229</v>
+      </c>
+      <c r="B131">
+        <v>0.85</v>
+      </c>
+      <c r="C131">
+        <v>48000</v>
+      </c>
+      <c r="D131">
+        <v>-3.73</v>
+      </c>
+      <c r="E131" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131" t="s">
+        <v>146</v>
+      </c>
+      <c r="G131" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" t="s">
+        <v>13</v>
+      </c>
+      <c r="I131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>230</v>
+      </c>
+      <c r="B132">
+        <v>0.77</v>
+      </c>
+      <c r="C132">
+        <v>48000</v>
+      </c>
+      <c r="D132">
+        <v>1.19</v>
+      </c>
+      <c r="E132" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" t="s">
+        <v>149</v>
+      </c>
+      <c r="G132" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" t="s">
+        <v>13</v>
+      </c>
+      <c r="I132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>231</v>
+      </c>
+      <c r="B133">
+        <v>0.85</v>
+      </c>
+      <c r="C133">
+        <v>48000</v>
+      </c>
+      <c r="D133">
+        <v>-8.91</v>
+      </c>
+      <c r="E133" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G133" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" t="s">
+        <v>13</v>
+      </c>
+      <c r="I133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>232</v>
+      </c>
+      <c r="B134">
+        <v>3.93</v>
+      </c>
+      <c r="C134">
+        <v>48000</v>
+      </c>
+      <c r="D134">
+        <v>31.28</v>
+      </c>
+      <c r="E134" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" t="s">
+        <v>146</v>
+      </c>
+      <c r="G134" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" t="s">
+        <v>13</v>
+      </c>
+      <c r="I134" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>233</v>
+      </c>
+      <c r="B135">
+        <v>6.57</v>
+      </c>
+      <c r="C135">
+        <v>48000</v>
+      </c>
+      <c r="D135">
+        <v>33.67</v>
+      </c>
+      <c r="E135" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" t="s">
+        <v>149</v>
+      </c>
+      <c r="G135" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" t="s">
+        <v>13</v>
+      </c>
+      <c r="I135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>234</v>
+      </c>
+      <c r="B136">
+        <v>4.44</v>
+      </c>
+      <c r="C136">
+        <v>48000</v>
+      </c>
+      <c r="D136">
+        <v>30.09</v>
+      </c>
+      <c r="E136" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136" t="s">
+        <v>151</v>
+      </c>
+      <c r="G136" t="s">
+        <v>12</v>
+      </c>
+      <c r="H136" t="s">
+        <v>13</v>
+      </c>
+      <c r="I136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>235</v>
+      </c>
+      <c r="B137">
+        <v>5546</v>
+      </c>
+      <c r="C137">
+        <v>48000</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>236</v>
+      </c>
+      <c r="F137" t="s">
+        <v>237</v>
+      </c>
+      <c r="G137" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" t="s">
+        <v>28</v>
+      </c>
+      <c r="I137" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>239</v>
+      </c>
+      <c r="B138">
+        <v>1280</v>
+      </c>
+      <c r="C138">
+        <v>48000</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>236</v>
+      </c>
+      <c r="F138" t="s">
+        <v>240</v>
+      </c>
+      <c r="G138" t="s">
+        <v>12</v>
+      </c>
+      <c r="H138" t="s">
+        <v>28</v>
+      </c>
+      <c r="I138" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>241</v>
+      </c>
+      <c r="B139">
+        <v>853</v>
+      </c>
+      <c r="C139">
+        <v>48000</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>236</v>
+      </c>
+      <c r="F139" t="s">
+        <v>242</v>
+      </c>
+      <c r="G139" t="s">
+        <v>12</v>
+      </c>
+      <c r="H139" t="s">
+        <v>28</v>
+      </c>
+      <c r="I139" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>243</v>
+      </c>
+      <c r="B140">
+        <v>1.62</v>
+      </c>
+      <c r="C140">
+        <v>48000</v>
+      </c>
+      <c r="D140">
+        <v>-9.07</v>
+      </c>
+      <c r="E140" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" t="s">
+        <v>27</v>
+      </c>
+      <c r="G140" t="s">
+        <v>12</v>
+      </c>
+      <c r="H140" t="s">
+        <v>13</v>
+      </c>
+      <c r="I140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>244</v>
+      </c>
+      <c r="B141">
+        <v>1.45</v>
+      </c>
+      <c r="C141">
+        <v>48000</v>
+      </c>
+      <c r="D141">
+        <v>-1.9</v>
+      </c>
+      <c r="E141" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" t="s">
+        <v>31</v>
+      </c>
+      <c r="G141" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141" t="s">
+        <v>13</v>
+      </c>
+      <c r="I141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>245</v>
+      </c>
+      <c r="B142">
+        <v>1.45</v>
+      </c>
+      <c r="C142">
+        <v>48000</v>
+      </c>
+      <c r="D142">
+        <v>-3.98</v>
+      </c>
+      <c r="E142" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" t="s">
+        <v>33</v>
+      </c>
+      <c r="G142" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" t="s">
+        <v>13</v>
+      </c>
+      <c r="I142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>246</v>
+      </c>
+      <c r="B143">
+        <v>1.19</v>
+      </c>
+      <c r="C143">
+        <v>48000</v>
+      </c>
+      <c r="D143">
+        <v>5.43</v>
+      </c>
+      <c r="E143" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" t="s">
+        <v>65</v>
+      </c>
+      <c r="G143" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" t="s">
+        <v>13</v>
+      </c>
+      <c r="I143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>247</v>
+      </c>
+      <c r="B144">
+        <v>1.19</v>
+      </c>
+      <c r="C144">
+        <v>48000</v>
+      </c>
+      <c r="D144">
+        <v>-3.77</v>
+      </c>
+      <c r="E144" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" t="s">
+        <v>222</v>
+      </c>
+      <c r="G144" t="s">
+        <v>12</v>
+      </c>
+      <c r="H144" t="s">
+        <v>13</v>
+      </c>
+      <c r="I144" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>248</v>
+      </c>
+      <c r="B145">
+        <v>1.79</v>
+      </c>
+      <c r="C145">
+        <v>48000</v>
+      </c>
+      <c r="D145">
+        <v>18.27</v>
+      </c>
+      <c r="E145" t="s">
+        <v>10</v>
+      </c>
+      <c r="F145" t="s">
+        <v>237</v>
+      </c>
+      <c r="G145" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" t="s">
+        <v>13</v>
+      </c>
+      <c r="I145" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
